--- a/Task #1/Results.xlsx
+++ b/Task #1/Results.xlsx
@@ -930,346 +930,106 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>0.9999999999999987</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.000000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.0000000000000013</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.0000000000000013</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Task #1/Results.xlsx
+++ b/Task #1/Results.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>x</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,9 +89,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1988407699037624E-2"/>
-          <c:y val="4.6770924467774859E-2"/>
-          <c:w val="0.77393405534453119"/>
+          <c:x val="7.3230792107006004E-2"/>
+          <c:y val="4.677085462795217E-2"/>
+          <c:w val="0.64083815371010033"/>
           <c:h val="0.88912438028579766"/>
         </c:manualLayout>
       </c:layout>
@@ -110,9 +106,6 @@
               <c:f>Лист1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -147,9 +140,6 @@
               <c:f>Лист1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -184,9 +174,6 @@
               <c:f>Лист1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -221,9 +208,6 @@
               <c:f>Лист1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -258,9 +242,6 @@
               <c:f>Лист1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -295,9 +276,6 @@
               <c:f>Лист1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -332,9 +310,6 @@
               <c:f>Лист1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -369,9 +344,6 @@
               <c:f>Лист1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -406,9 +378,6 @@
               <c:f>Лист1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -443,9 +412,6 @@
               <c:f>Лист1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -482,11 +448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154084096"/>
-        <c:axId val="154085632"/>
+        <c:axId val="173282048"/>
+        <c:axId val="173283584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154084096"/>
+        <c:axId val="173282048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154085632"/>
+        <c:crossAx val="173283584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -504,7 +470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154085632"/>
+        <c:axId val="173283584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154084096"/>
+        <c:crossAx val="173282048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -526,9 +492,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88849999999999996"/>
-          <c:y val="8.6043671624380286E-2"/>
-          <c:w val="0.1115"/>
+          <c:x val="0.79724383149501099"/>
+          <c:y val="6.8138550720551153E-2"/>
+          <c:w val="0.19474018878463895"/>
           <c:h val="0.83717191601049867"/>
         </c:manualLayout>
       </c:layout>
@@ -550,16 +516,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -868,168 +834,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f>B1+1</f>
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ref="D1:K1" si="0">C1+1</f>
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>FletcherReeves</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>GaussSolver</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Jacobi</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Seidel</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SeidelRelaxation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SeidelRelaxation</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>1.4462054251752514</v>
+        <v>-0.7334078501979615</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5574519963425784</v>
+        <v>-5.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.017728766960431526</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.13830269816628146</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2041199826559248</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.000000000000001</v>
+        <v>-5.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.3949344985323122</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.12493873660829995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
+        <v>-5.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.9365137424788943</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.3590219426416679</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.7269987279362623</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
+        <v>-5.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.3491770079716363</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.5509074688805811</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.18293068358598671</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.0</v>
+        <v>-5.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.8907562519182224</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6922366216770504</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.3290587192642247</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
+      <c r="D7" t="n">
+        <v>-2.303419517410961</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.7849906749139491</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.7849906749139491</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
+      <c r="D8" t="n">
+        <v>-2.844998761357585</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.8400382412448546</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.9768762011528622</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
+      <c r="D9" t="n">
+        <v>-3.257662026850247</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.8704208702385754</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.8704208702385754</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
+      <c r="D10" t="n">
+        <v>-3.799241270797247</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.8864483156727262</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.920394845200414</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
+      <c r="D11" t="n">
+        <v>-4.211904536288525</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.8946894449655122</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.8946894449655122</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
+      <c r="D12" t="n">
+        <v>-4.753483780240824</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.8988694048738318</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.9073519886344383</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
+      <c r="D13" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.9009745688693226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.9009745688693226</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
+      <c r="D14" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.9020309899251449</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.9041515726632892</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
+      <c r="D15" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.9025601656722332</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.9025601656722332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="n">
+        <v>-0.9028249955370792</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.9033551402341402</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="n">
+        <v>-0.9029574710534354</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.9029574710534354</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="n">
+        <v>-0.9030237239683788</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.9031562601272148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="n">
+        <v>-0.9030568542163907</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.9030568542163907</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="n">
+        <v>-0.9030734202882005</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.9031065543276684</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21" t="n">
+        <v>-0.9030817035610773</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22" t="n">
+        <v>-0.9030941287666246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" t="n">
+        <v>-0.9030879161194152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" t="n">
+        <v>-0.9030910224319108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" t="n">
+        <v>-0.9030894692728857</v>
       </c>
     </row>
   </sheetData>

--- a/Task #1/Results.xlsx
+++ b/Task #1/Results.xlsx
@@ -873,11 +873,6 @@
           <t>SeidelRelaxation</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>SeidelRelaxation</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="B2" t="n">
@@ -893,9 +888,6 @@
         <v>-0.9030899869919435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13830269816628146</v>
-      </c>
-      <c r="G2" t="n">
         <v>-0.2041199826559248</v>
       </c>
     </row>
@@ -910,9 +902,6 @@
         <v>-0.9030899869919435</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.12493873660829995</v>
-      </c>
-      <c r="G3" t="n">
         <v>0.3010299956639812</v>
       </c>
     </row>
@@ -927,9 +916,6 @@
         <v>-0.9030899869919435</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3590219426416679</v>
-      </c>
-      <c r="G4" t="n">
         <v>-0.7269987279362623</v>
       </c>
     </row>
@@ -941,9 +927,6 @@
         <v>-1.3491770079716363</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5509074688805811</v>
-      </c>
-      <c r="G5" t="n">
         <v>-0.18293068358598671</v>
       </c>
     </row>
@@ -955,9 +938,6 @@
         <v>-1.8907562519182224</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6922366216770504</v>
-      </c>
-      <c r="G6" t="n">
         <v>-1.3290587192642247</v>
       </c>
     </row>
@@ -968,18 +948,12 @@
       <c r="F7" t="n">
         <v>-0.7849906749139491</v>
       </c>
-      <c r="G7" t="n">
-        <v>-0.7849906749139491</v>
-      </c>
     </row>
     <row r="8">
       <c r="D8" t="n">
         <v>-2.844998761357585</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8400382412448546</v>
-      </c>
-      <c r="G8" t="n">
         <v>-0.9768762011528622</v>
       </c>
     </row>
@@ -990,18 +964,12 @@
       <c r="F9" t="n">
         <v>-0.8704208702385754</v>
       </c>
-      <c r="G9" t="n">
-        <v>-0.8704208702385754</v>
-      </c>
     </row>
     <row r="10">
       <c r="D10" t="n">
         <v>-3.799241270797247</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8864483156727262</v>
-      </c>
-      <c r="G10" t="n">
         <v>-0.920394845200414</v>
       </c>
     </row>
@@ -1012,18 +980,12 @@
       <c r="F11" t="n">
         <v>-0.8946894449655122</v>
       </c>
-      <c r="G11" t="n">
-        <v>-0.8946894449655122</v>
-      </c>
     </row>
     <row r="12">
       <c r="D12" t="n">
         <v>-4.753483780240824</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8988694048738318</v>
-      </c>
-      <c r="G12" t="n">
         <v>-0.9073519886344383</v>
       </c>
     </row>
@@ -1034,18 +996,12 @@
       <c r="F13" t="n">
         <v>-0.9009745688693226</v>
       </c>
-      <c r="G13" t="n">
-        <v>-0.9009745688693226</v>
-      </c>
     </row>
     <row r="14">
       <c r="D14" t="n">
         <v>-5.0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9020309899251449</v>
-      </c>
-      <c r="G14" t="n">
         <v>-0.9041515726632892</v>
       </c>
     </row>
@@ -1056,15 +1012,9 @@
       <c r="F15" t="n">
         <v>-0.9025601656722332</v>
       </c>
-      <c r="G15" t="n">
-        <v>-0.9025601656722332</v>
-      </c>
     </row>
     <row r="16">
       <c r="F16" t="n">
-        <v>-0.9028249955370792</v>
-      </c>
-      <c r="G16" t="n">
         <v>-0.9033551402341402</v>
       </c>
     </row>
@@ -1072,15 +1022,9 @@
       <c r="F17" t="n">
         <v>-0.9029574710534354</v>
       </c>
-      <c r="G17" t="n">
-        <v>-0.9029574710534354</v>
-      </c>
     </row>
     <row r="18">
       <c r="F18" t="n">
-        <v>-0.9030237239683788</v>
-      </c>
-      <c r="G18" t="n">
         <v>-0.9031562601272148</v>
       </c>
     </row>
@@ -1088,40 +1032,34 @@
       <c r="F19" t="n">
         <v>-0.9030568542163907</v>
       </c>
-      <c r="G19" t="n">
-        <v>-0.9030568542163907</v>
-      </c>
     </row>
     <row r="20">
       <c r="F20" t="n">
-        <v>-0.9030734202882005</v>
-      </c>
-      <c r="G20" t="n">
         <v>-0.9031065543276684</v>
       </c>
     </row>
     <row r="21">
-      <c r="G21" t="n">
+      <c r="F21" t="n">
         <v>-0.9030817035610773</v>
       </c>
     </row>
     <row r="22">
-      <c r="G22" t="n">
+      <c r="F22" t="n">
         <v>-0.9030941287666246</v>
       </c>
     </row>
     <row r="23">
-      <c r="G23" t="n">
+      <c r="F23" t="n">
         <v>-0.9030879161194152</v>
       </c>
     </row>
     <row r="24">
-      <c r="G24" t="n">
+      <c r="F24" t="n">
         <v>-0.9030910224319108</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" t="n">
+      <c r="F25" t="n">
         <v>-0.9030894692728857</v>
       </c>
     </row>

--- a/Task #1/Results.xlsx
+++ b/Task #1/Results.xlsx
@@ -448,11 +448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173282048"/>
-        <c:axId val="173283584"/>
+        <c:axId val="151331584"/>
+        <c:axId val="151333120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173282048"/>
+        <c:axId val="151331584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,15 +462,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173283584"/>
+        <c:crossAx val="151333120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173283584"/>
+        <c:axId val="151333120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,9 +482,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173282048"/>
+        <c:crossAx val="151331584"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -837,7 +838,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="B1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,192 +876,263 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
       <c r="B2" t="n">
-        <v>-0.7334078501979615</v>
+        <v>-0.35046515366367464</v>
       </c>
       <c r="C2" t="n">
         <v>-5.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.017728766960431526</v>
+        <v>0.17609125905568124</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9030899869919435</v>
+        <v>0.17609125905568124</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2041199826559248</v>
+        <v>0.17609125905568124</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
       <c r="B3" t="n">
         <v>-5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3949344985323122</v>
+        <v>-0.12493873660829995</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9030899869919435</v>
+        <v>-0.42596873227228116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3010299956639812</v>
+        <v>-0.42596873227228116</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
       <c r="B4" t="n">
         <v>-5.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9365137424788943</v>
+        <v>-0.42596873227228116</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9030899869919435</v>
+        <v>-1.0280287236002434</v>
       </c>
       <c r="F4" t="n">
+        <v>-1.0280287236002434</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="D5" t="n">
         <v>-0.7269987279362623</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1.3491770079716363</v>
+      <c r="E5" t="n">
+        <v>-1.630088714928206</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.18293068358598671</v>
+        <v>-1.630088714928206</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
       <c r="B6" t="n">
         <v>-5.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.8907562519182224</v>
+        <v>-1.0280287236002434</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.2321487062561682</v>
       </c>
       <c r="F6" t="n">
+        <v>-2.2321487062561682</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>-1.3290587192642247</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="n">
-        <v>-2.303419517410961</v>
+      <c r="E7" t="n">
+        <v>-2.8342086975841307</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7849906749139491</v>
+        <v>-2.8342086975841307</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
       <c r="D8" t="n">
-        <v>-2.844998761357585</v>
+        <v>-1.630088714928206</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.4362686889120932</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9768762011528622</v>
+        <v>-3.4362686889120932</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
       <c r="D9" t="n">
-        <v>-3.257662026850247</v>
+        <v>-1.9311187105921872</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4.038328680240055</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8704208702385754</v>
+        <v>-4.038328680240055</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
       <c r="D10" t="n">
-        <v>-3.799241270797247</v>
+        <v>-2.2321487062561682</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-4.640388671568018</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.920394845200414</v>
+        <v>-4.640388671568018</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
       <c r="D11" t="n">
-        <v>-4.211904536288525</v>
+        <v>-2.5331787019201495</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5.0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8946894449655122</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
       <c r="D12" t="n">
-        <v>-4.753483780240824</v>
+        <v>-2.8342086975841307</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5.0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9073519886344383</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
       <c r="D13" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.9009745688693226</v>
+        <v>-3.135238693248112</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
       <c r="D14" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.9041515726632892</v>
+        <v>-3.4362686889120932</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
       <c r="D15" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.9025601656722332</v>
+        <v>-3.7372986845760745</v>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="n">
-        <v>-0.9033551402341402</v>
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.038328680240055</v>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="n">
-        <v>-0.9029574710534354</v>
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.339358675904037</v>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="n">
-        <v>-0.9031562601272148</v>
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.640388671568018</v>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="n">
-        <v>-0.9030568542163907</v>
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.941418667231999</v>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="n">
-        <v>-0.9031065543276684</v>
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="n">
-        <v>-0.9030817035610773</v>
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="n">
-        <v>-0.9030941287666246</v>
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="n">
-        <v>-0.9030879161194152</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="n">
-        <v>-0.9030910224319108</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="n">
-        <v>-0.9030894692728857</v>
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.0</v>
       </c>
     </row>
   </sheetData>

--- a/Task #1/Results.xlsx
+++ b/Task #1/Results.xlsx
@@ -16,7 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>DaiYuan</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,6 +89,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -114,325 +125,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
+              <c:f>Лист1!$A$2:$A$10001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$50</c:f>
+              <c:f>Лист1!$B$2:$B$10001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$C$2:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$D$2:$D$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$2:$E$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$F$2:$F$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$G$2:$G$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$H$2:$H$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$I$2:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$J$2:$J$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$K$2:$K$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -448,11 +153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151331584"/>
-        <c:axId val="151333120"/>
+        <c:axId val="65967616"/>
+        <c:axId val="65969152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151331584"/>
+        <c:axId val="65967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,16 +167,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151333120"/>
+        <c:crossAx val="65969152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
+        <c:tickLblSkip val="1000"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151333120"/>
+        <c:axId val="65969152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,7 +187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151331584"/>
+        <c:crossAx val="65967616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -495,8 +200,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.79724383149501099"/>
           <c:y val="6.8138550720551153E-2"/>
-          <c:w val="0.19474018878463895"/>
-          <c:h val="0.83717191601049867"/>
+          <c:w val="0.16432865731462926"/>
+          <c:h val="0.85670818676761196"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -837,42 +542,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FletcherReeves</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>GaussSolver</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Jacobi</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Seidel</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>SeidelRelaxation</t>
-        </is>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -880,19 +559,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.35046515366367464</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17609125905568124</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.17609125905568124</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.17609125905568124</v>
+        <v>0.46747956659751616</v>
       </c>
     </row>
     <row r="3">
@@ -900,16 +567,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.12493873660829995</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.42596873227228116</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.42596873227228116</v>
+        <v>0.4759228138135808</v>
       </c>
     </row>
     <row r="4">
@@ -917,16 +575,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.42596873227228116</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1.0280287236002434</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-1.0280287236002434</v>
+        <v>0.45490611386587215</v>
       </c>
     </row>
     <row r="5">
@@ -934,16 +583,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.7269987279362623</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1.630088714928206</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-1.630088714928206</v>
+        <v>0.42064462263948843</v>
       </c>
     </row>
     <row r="6">
@@ -951,99 +591,54 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-1.0280287236002434</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-2.2321487062561682</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-2.2321487062561682</v>
+        <v>0.3974629347671379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>-1.3290587192642247</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-2.8342086975841307</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-2.8342086975841307</v>
+      <c r="B7" t="n">
+        <v>0.3870906640323796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7.0</v>
       </c>
-      <c r="D8" t="n">
-        <v>-1.630088714928206</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-3.4362686889120932</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-3.4362686889120932</v>
+      <c r="B8" t="n">
+        <v>0.33165914439685906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8.0</v>
       </c>
-      <c r="D9" t="n">
-        <v>-1.9311187105921872</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-4.038328680240055</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-4.038328680240055</v>
+      <c r="B9" t="n">
+        <v>0.22637473837699743</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9.0</v>
       </c>
-      <c r="D10" t="n">
-        <v>-2.2321487062561682</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-4.640388671568018</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-4.640388671568018</v>
+      <c r="B10" t="n">
+        <v>-0.38995451800897246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10.0</v>
       </c>
-      <c r="D11" t="n">
-        <v>-2.5331787019201495</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5.0</v>
+      <c r="B11" t="n">
+        <v>-0.40133173150084567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11.0</v>
       </c>
-      <c r="D12" t="n">
-        <v>-2.8342086975841307</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="B12" t="n">
         <v>-5.0</v>
       </c>
     </row>
@@ -1051,63 +646,63 @@
       <c r="A13" t="n">
         <v>12.0</v>
       </c>
-      <c r="D13" t="n">
-        <v>-3.135238693248112</v>
+      <c r="B13" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13.0</v>
       </c>
-      <c r="D14" t="n">
-        <v>-3.4362686889120932</v>
+      <c r="B14" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14.0</v>
       </c>
-      <c r="D15" t="n">
-        <v>-3.7372986845760745</v>
+      <c r="B15" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15.0</v>
       </c>
-      <c r="D16" t="n">
-        <v>-4.038328680240055</v>
+      <c r="B16" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16.0</v>
       </c>
-      <c r="D17" t="n">
-        <v>-4.339358675904037</v>
+      <c r="B17" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17.0</v>
       </c>
-      <c r="D18" t="n">
-        <v>-4.640388671568018</v>
+      <c r="B18" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18.0</v>
       </c>
-      <c r="D19" t="n">
-        <v>-4.941418667231999</v>
+      <c r="B19" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19.0</v>
       </c>
-      <c r="D20" t="n">
+      <c r="B20" t="n">
         <v>-5.0</v>
       </c>
     </row>
@@ -1115,7 +710,7 @@
       <c r="A21" t="n">
         <v>20.0</v>
       </c>
-      <c r="D21" t="n">
+      <c r="B21" t="n">
         <v>-5.0</v>
       </c>
     </row>
@@ -1123,7 +718,7 @@
       <c r="A22" t="n">
         <v>21.0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="B22" t="n">
         <v>-5.0</v>
       </c>
     </row>
@@ -1131,7 +726,551 @@
       <c r="A23" t="n">
         <v>22.0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="B23" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="n">
         <v>-5.0</v>
       </c>
     </row>
@@ -1148,8 +1287,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-</sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1163,8 +1301,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-</sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task #1/Results.xlsx
+++ b/Task #1/Results.xlsx
@@ -903,28 +903,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="H2" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -932,28 +932,28 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -961,57 +961,57 @@
         <v>1.0</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="H4" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>130.0</v>
+        <v>2.0</v>
       </c>
       <c r="H5" t="n">
-        <v>72.0</v>
+        <v>2.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1217.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1019,463 +1019,319 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="n">
-        <v>22.0</v>
+        <v>2.6</v>
       </c>
       <c r="C6" t="n">
-        <v>22.0</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0</v>
+        <v>2.1</v>
       </c>
       <c r="E6" t="n">
-        <v>20.0</v>
+        <v>2.1</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1220.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0</v>
+        <v>2.7</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0</v>
+        <v>2.7</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0</v>
+        <v>2.3</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>2.3</v>
       </c>
       <c r="F7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>925.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="n">
-        <v>50.0</v>
+        <v>2.5</v>
       </c>
       <c r="C8" t="n">
-        <v>50.0</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0</v>
+        <v>2.1</v>
       </c>
       <c r="E8" t="n">
-        <v>48.0</v>
+        <v>2.1</v>
       </c>
       <c r="F8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>899.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B9" t="n">
-        <v>60.0</v>
+        <v>3.9</v>
       </c>
       <c r="C9" t="n">
-        <v>59.0</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="n">
-        <v>60.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" t="n">
-        <v>61.0</v>
+        <v>3.9</v>
       </c>
       <c r="F9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>186.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>867.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B10" t="n">
-        <v>70.0</v>
+        <v>5.7</v>
       </c>
       <c r="C10" t="n">
-        <v>70.0</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="n">
-        <v>70.0</v>
+        <v>5.9</v>
       </c>
       <c r="E10" t="n">
-        <v>70.0</v>
+        <v>6.1</v>
       </c>
       <c r="F10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>187.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>884.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>90.0</v>
+        <v>7.0</v>
       </c>
       <c r="C11" t="n">
-        <v>90.0</v>
+        <v>6.8</v>
       </c>
       <c r="D11" t="n">
-        <v>90.0</v>
+        <v>7.4</v>
       </c>
       <c r="E11" t="n">
-        <v>90.0</v>
+        <v>7.1</v>
       </c>
       <c r="F11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>193.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>867.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="B12" t="n">
-        <v>120.0</v>
+        <v>7.3</v>
       </c>
       <c r="C12" t="n">
-        <v>120.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n">
-        <v>119.0</v>
+        <v>7.3</v>
       </c>
       <c r="E12" t="n">
-        <v>120.0</v>
+        <v>7.3</v>
       </c>
       <c r="F12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>197.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>876.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="B13" t="n">
-        <v>150.0</v>
+        <v>10.4</v>
       </c>
       <c r="C13" t="n">
-        <v>150.0</v>
+        <v>10.7</v>
       </c>
       <c r="D13" t="n">
-        <v>150.0</v>
+        <v>11.3</v>
       </c>
       <c r="E13" t="n">
-        <v>150.0</v>
+        <v>11.2</v>
       </c>
       <c r="F13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>199.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>878.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="B14" t="n">
-        <v>189.0</v>
+        <v>12.4</v>
       </c>
       <c r="C14" t="n">
-        <v>189.0</v>
+        <v>12.2</v>
       </c>
       <c r="D14" t="n">
-        <v>189.0</v>
+        <v>12.5</v>
       </c>
       <c r="E14" t="n">
-        <v>189.0</v>
+        <v>11.9</v>
       </c>
       <c r="F14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>862.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="B15" t="n">
-        <v>220.0</v>
+        <v>16.8</v>
       </c>
       <c r="C15" t="n">
-        <v>220.0</v>
+        <v>16.5</v>
       </c>
       <c r="D15" t="n">
-        <v>220.0</v>
+        <v>16.9</v>
       </c>
       <c r="E15" t="n">
-        <v>220.0</v>
+        <v>16.9</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>858.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="B16" t="n">
-        <v>217.0</v>
+        <v>21.4</v>
       </c>
       <c r="C16" t="n">
-        <v>217.0</v>
+        <v>21.2</v>
       </c>
       <c r="D16" t="n">
-        <v>217.0</v>
+        <v>22.8</v>
       </c>
       <c r="E16" t="n">
-        <v>217.0</v>
+        <v>21.8</v>
       </c>
       <c r="F16" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>856.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>37.0</v>
+        <v>14.0</v>
       </c>
       <c r="B17" t="n">
-        <v>224.0</v>
+        <v>28.5</v>
       </c>
       <c r="C17" t="n">
-        <v>224.0</v>
+        <v>28.0</v>
       </c>
       <c r="D17" t="n">
-        <v>224.0</v>
+        <v>27.9</v>
       </c>
       <c r="E17" t="n">
-        <v>224.0</v>
+        <v>29.2</v>
       </c>
       <c r="F17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>209.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>848.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>47.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>226.0</v>
+        <v>33.0</v>
       </c>
       <c r="C18" t="n">
-        <v>226.0</v>
+        <v>33.3</v>
       </c>
       <c r="D18" t="n">
-        <v>226.0</v>
+        <v>36.1</v>
       </c>
       <c r="E18" t="n">
-        <v>226.0</v>
+        <v>35.9</v>
       </c>
       <c r="F18" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>210.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>841.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>61.0</v>
+        <v>20.0</v>
       </c>
       <c r="B19" t="n">
-        <v>214.0</v>
+        <v>40.3</v>
       </c>
       <c r="C19" t="n">
-        <v>214.0</v>
+        <v>40.3</v>
       </c>
       <c r="D19" t="n">
-        <v>214.0</v>
+        <v>41.7</v>
       </c>
       <c r="E19" t="n">
-        <v>214.0</v>
+        <v>43.6</v>
       </c>
       <c r="F19" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>210.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>846.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>77.0</v>
+        <v>25.0</v>
       </c>
       <c r="B20" t="n">
-        <v>216.0</v>
+        <v>62.2</v>
       </c>
       <c r="C20" t="n">
-        <v>216.0</v>
+        <v>61.1</v>
       </c>
       <c r="D20" t="n">
-        <v>216.0</v>
+        <v>62.9</v>
       </c>
       <c r="E20" t="n">
-        <v>216.0</v>
+        <v>60.8</v>
       </c>
       <c r="F20" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>210.0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>848.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99.0</v>
+        <v>29.0</v>
       </c>
       <c r="B21" t="n">
-        <v>206.0</v>
+        <v>69.4</v>
       </c>
       <c r="C21" t="n">
-        <v>206.0</v>
+        <v>68.9</v>
       </c>
       <c r="D21" t="n">
-        <v>206.0</v>
+        <v>76.5</v>
       </c>
       <c r="E21" t="n">
-        <v>206.0</v>
+        <v>77.1</v>
       </c>
       <c r="F21" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>838.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Task #1/Results.xlsx
+++ b/Task #1/Results.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>x</t>
+    <t>n \ solver</t>
   </si>
   <si>
     <t>DaiYuan</t>
@@ -80,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,11 +479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70722304"/>
-        <c:axId val="70723840"/>
+        <c:axId val="180910720"/>
+        <c:axId val="180916608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70722304"/>
+        <c:axId val="180910720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70723840"/>
+        <c:crossAx val="180916608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,7 +502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70723840"/>
+        <c:axId val="180916608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70722304"/>
+        <c:crossAx val="180910720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1039,16 +1042,16 @@
         <v>2.0</v>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="C7" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D7" t="n">
-        <v>2.3</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.3</v>
+        <v>2.0</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -1059,19 +1062,25 @@
         <v>2.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2.1</v>
+        <v>2.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.1</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="9">
@@ -1079,13 +1088,13 @@
         <v>3.0</v>
       </c>
       <c r="B9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.0</v>
       </c>
       <c r="E9" t="n">
         <v>3.9</v>
@@ -1099,16 +1108,16 @@
         <v>4.0</v>
       </c>
       <c r="B10" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.5</v>
       </c>
-      <c r="D10" t="n">
-        <v>5.9</v>
-      </c>
       <c r="E10" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="F10" t="n">
         <v>1.0</v>
@@ -1119,16 +1128,16 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>7.0</v>
+        <v>6.7</v>
       </c>
       <c r="C11" t="n">
         <v>6.8</v>
       </c>
       <c r="D11" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="E11" t="n">
-        <v>7.1</v>
+        <v>7.0</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -1139,16 +1148,16 @@
         <v>5.0</v>
       </c>
       <c r="B12" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="C12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D12" t="n">
         <v>7.0</v>
       </c>
-      <c r="D12" t="n">
-        <v>7.3</v>
-      </c>
       <c r="E12" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -1159,16 +1168,16 @@
         <v>7.0</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="C13" t="n">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="D13" t="n">
-        <v>11.3</v>
+        <v>9.7</v>
       </c>
       <c r="E13" t="n">
-        <v>11.2</v>
+        <v>9.7</v>
       </c>
       <c r="F13" t="n">
         <v>1.0</v>
@@ -1179,16 +1188,16 @@
         <v>8.0</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D14" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="E14" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F14" t="n">
         <v>1.0</v>
@@ -1199,16 +1208,16 @@
         <v>10.0</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8</v>
+        <v>17.4</v>
       </c>
       <c r="C15" t="n">
-        <v>16.5</v>
+        <v>17.9</v>
       </c>
       <c r="D15" t="n">
-        <v>16.9</v>
+        <v>18.0</v>
       </c>
       <c r="E15" t="n">
-        <v>16.9</v>
+        <v>18.5</v>
       </c>
       <c r="F15" t="n">
         <v>1.0</v>
@@ -1219,13 +1228,13 @@
         <v>12.0</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="C16" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="D16" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
       <c r="E16" t="n">
         <v>21.8</v>
@@ -1239,16 +1248,16 @@
         <v>14.0</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5</v>
+        <v>25.2</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0</v>
+        <v>24.5</v>
       </c>
       <c r="D17" t="n">
-        <v>27.9</v>
+        <v>26.8</v>
       </c>
       <c r="E17" t="n">
-        <v>29.2</v>
+        <v>26.9</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -1259,16 +1268,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>33.0</v>
+        <v>33.4</v>
       </c>
       <c r="C18" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="D18" t="n">
-        <v>36.1</v>
+        <v>34.8</v>
       </c>
       <c r="E18" t="n">
-        <v>35.9</v>
+        <v>35.1</v>
       </c>
       <c r="F18" t="n">
         <v>1.0</v>
@@ -1279,16 +1288,16 @@
         <v>20.0</v>
       </c>
       <c r="B19" t="n">
-        <v>40.3</v>
+        <v>41.4</v>
       </c>
       <c r="C19" t="n">
-        <v>40.3</v>
+        <v>42.9</v>
       </c>
       <c r="D19" t="n">
-        <v>41.7</v>
+        <v>42.9</v>
       </c>
       <c r="E19" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -1299,16 +1308,16 @@
         <v>25.0</v>
       </c>
       <c r="B20" t="n">
-        <v>62.2</v>
+        <v>58.1</v>
       </c>
       <c r="C20" t="n">
-        <v>61.1</v>
+        <v>58.2</v>
       </c>
       <c r="D20" t="n">
-        <v>62.9</v>
+        <v>62.6</v>
       </c>
       <c r="E20" t="n">
-        <v>60.8</v>
+        <v>64.0</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -1319,16 +1328,16 @@
         <v>29.0</v>
       </c>
       <c r="B21" t="n">
-        <v>69.4</v>
+        <v>64.2</v>
       </c>
       <c r="C21" t="n">
-        <v>68.9</v>
+        <v>63.7</v>
       </c>
       <c r="D21" t="n">
-        <v>76.5</v>
+        <v>69.1</v>
       </c>
       <c r="E21" t="n">
-        <v>77.1</v>
+        <v>73.7</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
